--- a/doc/Class2.xlsx
+++ b/doc/Class2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\cygwin64\home\s.hein\GitHub\Trains\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\cygwin64\home\s.hein\GitHub\Trains\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{CA2BB0EE-5398-42A4-B606-DCF6193DF74A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B6284F32-3D66-4D87-BA19-E7D4CB32E8F0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="0" windowWidth="27315" windowHeight="12008" activeTab="1"/>
+    <workbookView xWindow="2970" yWindow="0" windowWidth="27315" windowHeight="12008" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="count" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">percent!$A$1:$AP$41</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1112,11 +1112,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP41"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1258,7 +1258,7 @@
         <v>15400</v>
       </c>
       <c r="C2" s="2">
-        <v>15395</v>
+        <v>15400</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1275,9 +1275,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-      <c r="S2" s="4">
-        <v>5</v>
-      </c>
+      <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -1288,10 +1286,10 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="12">
-        <v>14654</v>
+        <v>14648</v>
       </c>
       <c r="E3" s="12">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1317,10 +1315,10 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6">
-        <v>791</v>
+        <v>729</v>
       </c>
       <c r="E4" s="6">
-        <v>14609</v>
+        <v>14671</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1348,13 +1346,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>15685</v>
+        <v>15692</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -1378,12 +1376,12 @@
       <c r="E6" s="6"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12">
-        <v>15693</v>
+        <v>15692</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1494,16 +1492,16 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="12">
-        <v>9916</v>
+        <v>9999</v>
       </c>
       <c r="L10" s="6">
-        <v>4972</v>
+        <v>4903</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="12">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
@@ -1525,23 +1523,20 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="12">
-        <v>4990</v>
+        <v>5045</v>
       </c>
       <c r="L11" s="6">
-        <v>9917</v>
+        <v>9826</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="12">
-        <v>792</v>
+        <v>829</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="7"/>
-      <c r="W11">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -1554,29 +1549,23 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6">
-        <v>39</v>
-      </c>
+      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6">
-        <v>11098</v>
+        <v>11205</v>
       </c>
       <c r="N12" s="6">
-        <v>4222</v>
+        <v>4195</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="6">
-        <v>16</v>
-      </c>
-      <c r="S12" s="7">
-        <v>25</v>
-      </c>
+      <c r="R12" s="6"/>
+      <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -1589,29 +1578,23 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6">
-        <v>57</v>
-      </c>
+      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6">
-        <v>4321</v>
+        <v>4260</v>
       </c>
       <c r="N13" s="6">
-        <v>10985</v>
+        <v>11140</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="6">
-        <v>18</v>
-      </c>
-      <c r="S13" s="7">
-        <v>19</v>
-      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
@@ -1656,16 +1639,16 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L15" s="6">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6">
-        <v>15621</v>
+        <v>15611</v>
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
@@ -1693,10 +1676,10 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="12">
-        <v>15334</v>
+        <v>15319</v>
       </c>
       <c r="R16" s="12">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="S16" s="7"/>
     </row>
@@ -1722,10 +1705,10 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="12">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="R17" s="12">
-        <v>15334</v>
+        <v>15341</v>
       </c>
       <c r="S17" s="7"/>
     </row>
@@ -1736,9 +1719,7 @@
       <c r="B18">
         <v>15400</v>
       </c>
-      <c r="C18" s="8">
-        <v>28</v>
-      </c>
+      <c r="C18" s="8"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -1755,7 +1736,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="10">
-        <v>15372</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.45">
@@ -1781,12 +1762,9 @@
       <c r="B20">
         <v>15800</v>
       </c>
-      <c r="O20">
-        <v>27</v>
-      </c>
       <c r="T20" s="5"/>
       <c r="U20" s="12">
-        <v>15759</v>
+        <v>15799</v>
       </c>
       <c r="V20" s="12">
         <v>1</v>
@@ -1794,9 +1772,6 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="7"/>
-      <c r="AA20">
-        <v>13</v>
-      </c>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
@@ -1805,22 +1780,16 @@
       <c r="B21">
         <v>15800</v>
       </c>
-      <c r="O21">
-        <v>55</v>
-      </c>
       <c r="T21" s="5"/>
       <c r="U21" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V21" s="12">
-        <v>15724</v>
+        <v>15799</v>
       </c>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="7"/>
-      <c r="AA21">
-        <v>19</v>
-      </c>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
@@ -1829,14 +1798,11 @@
       <c r="B22">
         <v>15700</v>
       </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
       <c r="T22" s="5"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6">
-        <v>15698</v>
+        <v>15700</v>
       </c>
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
@@ -1848,15 +1814,12 @@
       <c r="B23">
         <v>15400</v>
       </c>
-      <c r="R23">
-        <v>4</v>
-      </c>
       <c r="T23" s="5"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6">
-        <v>15396</v>
+        <v>15400</v>
       </c>
       <c r="Y23" s="7"/>
     </row>
@@ -1909,13 +1872,10 @@
       <c r="B27">
         <v>15700</v>
       </c>
-      <c r="F27">
-        <v>15</v>
-      </c>
       <c r="Z27" s="8"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="10">
-        <v>15685</v>
+        <v>15700</v>
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.45">
@@ -1926,10 +1886,10 @@
         <v>15800</v>
       </c>
       <c r="AC28" s="2">
-        <v>15777</v>
+        <v>15780</v>
       </c>
       <c r="AD28" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
@@ -1942,9 +1902,7 @@
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
-      <c r="AP28" s="4">
-        <v>1</v>
-      </c>
+      <c r="AP28" s="4"/>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
@@ -1954,10 +1912,10 @@
         <v>15800</v>
       </c>
       <c r="AC29" s="11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AD29" s="6">
-        <v>15779</v>
+        <v>15784</v>
       </c>
       <c r="AE29" s="6"/>
       <c r="AF29" s="6"/>
@@ -1969,12 +1927,8 @@
       <c r="AL29" s="6"/>
       <c r="AM29" s="6"/>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="6">
-        <v>1</v>
-      </c>
-      <c r="AP29" s="7">
-        <v>1</v>
-      </c>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="7"/>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
@@ -2271,14 +2225,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AP41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2421,7 +2375,7 @@
       </c>
       <c r="C2" s="15">
         <f>IF(count!C2 = 0, "", count!C2/$B2)</f>
-        <v>0.99967532467532472</v>
+        <v>1</v>
       </c>
       <c r="D2" s="16" t="str">
         <f>IF(count!D2 = 0, "", count!D2/$B2)</f>
@@ -2483,9 +2437,9 @@
         <f>IF(count!R2 = 0, "", count!R2/$B2)</f>
         <v/>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="17" t="str">
         <f>IF(count!S2 = 0, "", count!S2/$B2)</f>
-        <v>3.2467532467532468E-4</v>
+        <v/>
       </c>
       <c r="T2" s="13" t="str">
         <f>IF(count!T2 = 0, "", count!T2/$B2)</f>
@@ -2593,11 +2547,11 @@
       </c>
       <c r="D3" s="15">
         <f>IF(count!D3 = 0, "", count!D3/$B3)</f>
-        <v>0.9515584415584416</v>
+        <v>0.95116883116883122</v>
       </c>
       <c r="E3" s="17">
         <f>IF(count!E3 = 0, "", count!E3/$B3)</f>
-        <v>4.8441558441558438E-2</v>
+        <v>4.8831168831168829E-2</v>
       </c>
       <c r="F3" s="13" t="str">
         <f>IF(count!F3 = 0, "", count!F3/$B3)</f>
@@ -2761,11 +2715,11 @@
       </c>
       <c r="D4" s="20">
         <f>IF(count!D4 = 0, "", count!D4/$B4)</f>
-        <v>5.1363636363636361E-2</v>
+        <v>4.7337662337662338E-2</v>
       </c>
       <c r="E4" s="22">
         <f>IF(count!E4 = 0, "", count!E4/$B4)</f>
-        <v>0.94863636363636361</v>
+        <v>0.95266233766233765</v>
       </c>
       <c r="F4" s="13" t="str">
         <f>IF(count!F4 = 0, "", count!F4/$B4)</f>
@@ -2937,7 +2891,7 @@
       </c>
       <c r="F5" s="15">
         <f>IF(count!F5 = 0, "", count!F5/$B5)</f>
-        <v>0.99904458598726109</v>
+        <v>0.99949044585987257</v>
       </c>
       <c r="G5" s="17" t="str">
         <f>IF(count!G5 = 0, "", count!G5/$B5)</f>
@@ -2953,7 +2907,7 @@
       </c>
       <c r="J5" s="13">
         <f>IF(count!J5 = 0, "", count!J5/$B5)</f>
-        <v>9.5541401273885351E-4</v>
+        <v>5.0955414012738849E-4</v>
       </c>
       <c r="K5" s="13" t="str">
         <f>IF(count!K5 = 0, "", count!K5/$B5)</f>
@@ -3109,7 +3063,7 @@
       </c>
       <c r="G6" s="22">
         <f>IF(count!G6 = 0, "", count!G6/$B6)</f>
-        <v>0.99955414012738852</v>
+        <v>0.99949044585987257</v>
       </c>
       <c r="H6" s="13" t="str">
         <f>IF(count!H6 = 0, "", count!H6/$B6)</f>
@@ -3121,7 +3075,7 @@
       </c>
       <c r="J6" s="13">
         <f>IF(count!J6 = 0, "", count!J6/$B6)</f>
-        <v>4.4585987261146497E-4</v>
+        <v>5.0955414012738849E-4</v>
       </c>
       <c r="K6" s="13" t="str">
         <f>IF(count!K6 = 0, "", count!K6/$B6)</f>
@@ -3797,11 +3751,11 @@
       </c>
       <c r="K10" s="15">
         <f>IF(count!K10 = 0, "", count!K10/$B10)</f>
-        <v>0.63159235668789804</v>
+        <v>0.63687898089171979</v>
       </c>
       <c r="L10" s="17">
         <f>IF(count!L10 = 0, "", count!L10/$B10)</f>
-        <v>0.31668789808917197</v>
+        <v>0.31229299363057322</v>
       </c>
       <c r="M10" s="13" t="str">
         <f>IF(count!M10 = 0, "", count!M10/$B10)</f>
@@ -3817,7 +3771,7 @@
       </c>
       <c r="P10" s="23">
         <f>IF(count!P10 = 0, "", count!P10/$B10)</f>
-        <v>5.1719745222929936E-2</v>
+        <v>5.0828025477707005E-2</v>
       </c>
       <c r="Q10" s="13" t="str">
         <f>IF(count!Q10 = 0, "", count!Q10/$B10)</f>
@@ -3965,11 +3919,11 @@
       </c>
       <c r="K11" s="20">
         <f>IF(count!K11 = 0, "", count!K11/$B11)</f>
-        <v>0.31783439490445858</v>
+        <v>0.32133757961783438</v>
       </c>
       <c r="L11" s="22">
         <f>IF(count!L11 = 0, "", count!L11/$B11)</f>
-        <v>0.63165605095541399</v>
+        <v>0.62585987261146492</v>
       </c>
       <c r="M11" s="13" t="str">
         <f>IF(count!M11 = 0, "", count!M11/$B11)</f>
@@ -3985,7 +3939,7 @@
       </c>
       <c r="P11" s="23">
         <f>IF(count!P11 = 0, "", count!P11/$B11)</f>
-        <v>5.0445859872611465E-2</v>
+        <v>5.2802547770700634E-2</v>
       </c>
       <c r="Q11" s="13" t="str">
         <f>IF(count!Q11 = 0, "", count!Q11/$B11)</f>
@@ -4011,9 +3965,9 @@
         <f>IF(count!V11 = 0, "", count!V11/$B11)</f>
         <v/>
       </c>
-      <c r="W11" s="13">
+      <c r="W11" s="13" t="str">
         <f>IF(count!W11 = 0, "", count!W11/$B11)</f>
-        <v>6.3694267515923561E-5</v>
+        <v/>
       </c>
       <c r="X11" s="13" t="str">
         <f>IF(count!X11 = 0, "", count!X11/$B11)</f>
@@ -4115,9 +4069,9 @@
         <f>IF(count!F12 = 0, "", count!F12/$B12)</f>
         <v/>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="13" t="str">
         <f>IF(count!G12 = 0, "", count!G12/$B12)</f>
-        <v>2.5324675324675324E-3</v>
+        <v/>
       </c>
       <c r="H12" s="13" t="str">
         <f>IF(count!H12 = 0, "", count!H12/$B12)</f>
@@ -4141,11 +4095,11 @@
       </c>
       <c r="M12" s="15">
         <f>IF(count!M12 = 0, "", count!M12/$B12)</f>
-        <v>0.72064935064935065</v>
+        <v>0.72759740259740258</v>
       </c>
       <c r="N12" s="17">
         <f>IF(count!N12 = 0, "", count!N12/$B12)</f>
-        <v>0.27415584415584415</v>
+        <v>0.27240259740259742</v>
       </c>
       <c r="O12" s="13" t="str">
         <f>IF(count!O12 = 0, "", count!O12/$B12)</f>
@@ -4159,13 +4113,13 @@
         <f>IF(count!Q12 = 0, "", count!Q12/$B12)</f>
         <v/>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="13" t="str">
         <f>IF(count!R12 = 0, "", count!R12/$B12)</f>
-        <v>1.038961038961039E-3</v>
-      </c>
-      <c r="S12" s="19">
+        <v/>
+      </c>
+      <c r="S12" s="19" t="str">
         <f>IF(count!S12 = 0, "", count!S12/$B12)</f>
-        <v>1.6233766233766235E-3</v>
+        <v/>
       </c>
       <c r="T12" s="13" t="str">
         <f>IF(count!T12 = 0, "", count!T12/$B12)</f>
@@ -4283,9 +4237,9 @@
         <f>IF(count!F13 = 0, "", count!F13/$B13)</f>
         <v/>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="13" t="str">
         <f>IF(count!G13 = 0, "", count!G13/$B13)</f>
-        <v>3.7012987012987014E-3</v>
+        <v/>
       </c>
       <c r="H13" s="13" t="str">
         <f>IF(count!H13 = 0, "", count!H13/$B13)</f>
@@ -4309,11 +4263,11 @@
       </c>
       <c r="M13" s="20">
         <f>IF(count!M13 = 0, "", count!M13/$B13)</f>
-        <v>0.2805844155844156</v>
+        <v>0.2766233766233766</v>
       </c>
       <c r="N13" s="22">
         <f>IF(count!N13 = 0, "", count!N13/$B13)</f>
-        <v>0.71331168831168834</v>
+        <v>0.72337662337662334</v>
       </c>
       <c r="O13" s="13" t="str">
         <f>IF(count!O13 = 0, "", count!O13/$B13)</f>
@@ -4327,13 +4281,13 @@
         <f>IF(count!Q13 = 0, "", count!Q13/$B13)</f>
         <v/>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="13" t="str">
         <f>IF(count!R13 = 0, "", count!R13/$B13)</f>
-        <v>1.1688311688311688E-3</v>
-      </c>
-      <c r="S13" s="19">
+        <v/>
+      </c>
+      <c r="S13" s="19" t="str">
         <f>IF(count!S13 = 0, "", count!S13/$B13)</f>
-        <v>1.2337662337662339E-3</v>
+        <v/>
       </c>
       <c r="T13" s="13" t="str">
         <f>IF(count!T13 = 0, "", count!T13/$B13)</f>
@@ -4637,11 +4591,11 @@
       </c>
       <c r="K15" s="13">
         <f>IF(count!K15 = 0, "", count!K15/$B15)</f>
-        <v>2.1019108280254778E-3</v>
+        <v>2.4840764331210191E-3</v>
       </c>
       <c r="L15" s="13">
         <f>IF(count!L15 = 0, "", count!L15/$B15)</f>
-        <v>2.9299363057324842E-3</v>
+        <v>3.1847133757961785E-3</v>
       </c>
       <c r="M15" s="13" t="str">
         <f>IF(count!M15 = 0, "", count!M15/$B15)</f>
@@ -4657,7 +4611,7 @@
       </c>
       <c r="P15" s="14">
         <f>IF(count!P15 = 0, "", count!P15/$B15)</f>
-        <v>0.99496815286624207</v>
+        <v>0.99433121019108284</v>
       </c>
       <c r="Q15" s="13" t="str">
         <f>IF(count!Q15 = 0, "", count!Q15/$B15)</f>
@@ -4829,11 +4783,11 @@
       </c>
       <c r="Q16" s="15">
         <f>IF(count!Q16 = 0, "", count!Q16/$B16)</f>
-        <v>0.99571428571428566</v>
+        <v>0.9947402597402597</v>
       </c>
       <c r="R16" s="17">
         <f>IF(count!R16 = 0, "", count!R16/$B16)</f>
-        <v>4.2857142857142859E-3</v>
+        <v>5.2597402597402594E-3</v>
       </c>
       <c r="S16" s="19" t="str">
         <f>IF(count!S16 = 0, "", count!S16/$B16)</f>
@@ -4997,11 +4951,11 @@
       </c>
       <c r="Q17" s="20">
         <f>IF(count!Q17 = 0, "", count!Q17/$B17)</f>
-        <v>4.2857142857142859E-3</v>
+        <v>3.8311688311688311E-3</v>
       </c>
       <c r="R17" s="22">
         <f>IF(count!R17 = 0, "", count!R17/$B17)</f>
-        <v>0.99571428571428566</v>
+        <v>0.99616883116883115</v>
       </c>
       <c r="S17" s="19" t="str">
         <f>IF(count!S17 = 0, "", count!S17/$B17)</f>
@@ -5107,9 +5061,9 @@
       <c r="B18">
         <v>15400</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="20" t="str">
         <f>IF(count!C18 = 0, "", count!C18/$B18)</f>
-        <v>1.8181818181818182E-3</v>
+        <v/>
       </c>
       <c r="D18" s="21" t="str">
         <f>IF(count!D18 = 0, "", count!D18/$B18)</f>
@@ -5173,7 +5127,7 @@
       </c>
       <c r="S18" s="22">
         <f>IF(count!S18 = 0, "", count!S18/$B18)</f>
-        <v>0.99818181818181817</v>
+        <v>1</v>
       </c>
       <c r="T18" s="13" t="str">
         <f>IF(count!T18 = 0, "", count!T18/$B18)</f>
@@ -5491,9 +5445,9 @@
         <f>IF(count!N20 = 0, "", count!N20/$B20)</f>
         <v/>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="13" t="str">
         <f>IF(count!O20 = 0, "", count!O20/$B20)</f>
-        <v>1.7088607594936708E-3</v>
+        <v/>
       </c>
       <c r="P20" s="13" t="str">
         <f>IF(count!P20 = 0, "", count!P20/$B20)</f>
@@ -5517,7 +5471,7 @@
       </c>
       <c r="U20" s="15">
         <f>IF(count!U20 = 0, "", count!U20/$B20)</f>
-        <v>0.9974050632911392</v>
+        <v>0.99993670886075947</v>
       </c>
       <c r="V20" s="17">
         <f>IF(count!V20 = 0, "", count!V20/$B20)</f>
@@ -5539,9 +5493,9 @@
         <f>IF(count!Z20 = 0, "", count!Z20/$B20)</f>
         <v/>
       </c>
-      <c r="AA20" s="13">
+      <c r="AA20" s="13" t="str">
         <f>IF(count!AA20 = 0, "", count!AA20/$B20)</f>
-        <v>8.2278481012658226E-4</v>
+        <v/>
       </c>
       <c r="AB20" s="13" t="str">
         <f>IF(count!AB20 = 0, "", count!AB20/$B20)</f>
@@ -5659,9 +5613,9 @@
         <f>IF(count!N21 = 0, "", count!N21/$B21)</f>
         <v/>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="13" t="str">
         <f>IF(count!O21 = 0, "", count!O21/$B21)</f>
-        <v>3.481012658227848E-3</v>
+        <v/>
       </c>
       <c r="P21" s="13" t="str">
         <f>IF(count!P21 = 0, "", count!P21/$B21)</f>
@@ -5685,11 +5639,11 @@
       </c>
       <c r="U21" s="20">
         <f>IF(count!U21 = 0, "", count!U21/$B21)</f>
-        <v>1.2658227848101267E-4</v>
+        <v>6.3291139240506333E-5</v>
       </c>
       <c r="V21" s="22">
         <f>IF(count!V21 = 0, "", count!V21/$B21)</f>
-        <v>0.99518987341772147</v>
+        <v>0.99993670886075947</v>
       </c>
       <c r="W21" s="13" t="str">
         <f>IF(count!W21 = 0, "", count!W21/$B21)</f>
@@ -5707,9 +5661,9 @@
         <f>IF(count!Z21 = 0, "", count!Z21/$B21)</f>
         <v/>
       </c>
-      <c r="AA21" s="13">
+      <c r="AA21" s="13" t="str">
         <f>IF(count!AA21 = 0, "", count!AA21/$B21)</f>
-        <v>1.2025316455696203E-3</v>
+        <v/>
       </c>
       <c r="AB21" s="13" t="str">
         <f>IF(count!AB21 = 0, "", count!AB21/$B21)</f>
@@ -5811,9 +5765,9 @@
         <f>IF(count!J22 = 0, "", count!J22/$B22)</f>
         <v/>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="13" t="str">
         <f>IF(count!K22 = 0, "", count!K22/$B22)</f>
-        <v>1.2738853503184712E-4</v>
+        <v/>
       </c>
       <c r="L22" s="13" t="str">
         <f>IF(count!L22 = 0, "", count!L22/$B22)</f>
@@ -5861,7 +5815,7 @@
       </c>
       <c r="W22" s="14">
         <f>IF(count!W22 = 0, "", count!W22/$B22)</f>
-        <v>0.9998726114649682</v>
+        <v>1</v>
       </c>
       <c r="X22" s="13" t="str">
         <f>IF(count!X22 = 0, "", count!X22/$B22)</f>
@@ -6007,9 +5961,9 @@
         <f>IF(count!Q23 = 0, "", count!Q23/$B23)</f>
         <v/>
       </c>
-      <c r="R23" s="13">
+      <c r="R23" s="13" t="str">
         <f>IF(count!R23 = 0, "", count!R23/$B23)</f>
-        <v>2.5974025974025974E-4</v>
+        <v/>
       </c>
       <c r="S23" s="13" t="str">
         <f>IF(count!S23 = 0, "", count!S23/$B23)</f>
@@ -6033,7 +5987,7 @@
       </c>
       <c r="X23" s="14">
         <f>IF(count!X23 = 0, "", count!X23/$B23)</f>
-        <v>0.99974025974025971</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="19" t="str">
         <f>IF(count!Y23 = 0, "", count!Y23/$B23)</f>
@@ -6631,9 +6585,9 @@
         <f>IF(count!E27 = 0, "", count!E27/$B27)</f>
         <v/>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="13" t="str">
         <f>IF(count!F27 = 0, "", count!F27/$B27)</f>
-        <v>9.5541401273885351E-4</v>
+        <v/>
       </c>
       <c r="G27" s="13" t="str">
         <f>IF(count!G27 = 0, "", count!G27/$B27)</f>
@@ -6721,7 +6675,7 @@
       </c>
       <c r="AB27" s="22">
         <f>IF(count!AB27 = 0, "", count!AB27/$B27)</f>
-        <v>0.99904458598726109</v>
+        <v>1</v>
       </c>
       <c r="AC27" s="13" t="str">
         <f>IF(count!AC27 = 0, "", count!AC27/$B27)</f>
@@ -6893,11 +6847,11 @@
       </c>
       <c r="AC28" s="15">
         <f>IF(count!AC28 = 0, "", count!AC28/$B28)</f>
-        <v>0.99854430379746839</v>
+        <v>0.99873417721518987</v>
       </c>
       <c r="AD28" s="17">
         <f>IF(count!AD28 = 0, "", count!AD28/$B28)</f>
-        <v>1.3924050632911392E-3</v>
+        <v>1.2658227848101266E-3</v>
       </c>
       <c r="AE28" s="16" t="str">
         <f>IF(count!AE28 = 0, "", count!AE28/$B28)</f>
@@ -6943,9 +6897,9 @@
         <f>IF(count!AO28 = 0, "", count!AO28/$B28)</f>
         <v/>
       </c>
-      <c r="AP28" s="17">
+      <c r="AP28" s="17" t="str">
         <f>IF(count!AP28 = 0, "", count!AP28/$B28)</f>
-        <v>6.3291139240506333E-5</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.45">
@@ -7061,11 +7015,11 @@
       </c>
       <c r="AC29" s="20">
         <f>IF(count!AC29 = 0, "", count!AC29/$B29)</f>
-        <v>1.2025316455696203E-3</v>
+        <v>1.0126582278481013E-3</v>
       </c>
       <c r="AD29" s="22">
         <f>IF(count!AD29 = 0, "", count!AD29/$B29)</f>
-        <v>0.99867088607594934</v>
+        <v>0.99898734177215187</v>
       </c>
       <c r="AE29" s="13" t="str">
         <f>IF(count!AE29 = 0, "", count!AE29/$B29)</f>
@@ -7107,13 +7061,13 @@
         <f>IF(count!AN29 = 0, "", count!AN29/$B29)</f>
         <v/>
       </c>
-      <c r="AO29" s="13">
+      <c r="AO29" s="13" t="str">
         <f>IF(count!AO29 = 0, "", count!AO29/$B29)</f>
-        <v>6.3291139240506333E-5</v>
-      </c>
-      <c r="AP29" s="19">
+        <v/>
+      </c>
+      <c r="AP29" s="19" t="str">
         <f>IF(count!AP29 = 0, "", count!AP29/$B29)</f>
-        <v>6.3291139240506333E-5</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.45">

--- a/doc/Class2.xlsx
+++ b/doc/Class2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\cygwin64\home\s.hein\GitHub\Trains\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B6284F32-3D66-4D87-BA19-E7D4CB32E8F0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D509DF3D-1064-4176-93A6-5C21C39444C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="0" windowWidth="27315" windowHeight="12008" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="0" windowWidth="27315" windowHeight="12008" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="count" sheetId="1" r:id="rId1"/>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:AP41"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection sqref="A1:AP41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1286,10 +1286,10 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="12">
-        <v>14648</v>
+        <v>14653</v>
       </c>
       <c r="E3" s="12">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1315,10 +1315,10 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="E4" s="6">
-        <v>14671</v>
+        <v>14668</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1346,13 +1346,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>15692</v>
+        <v>15694</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -1376,12 +1376,12 @@
       <c r="E6" s="6"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12">
-        <v>15692</v>
+        <v>15698</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1460,11 +1460,13 @@
       <c r="F9" s="12">
         <v>4</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6">
+        <v>2</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="12">
-        <v>15696</v>
+        <v>15694</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -1492,16 +1494,16 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="12">
-        <v>9999</v>
+        <v>10301</v>
       </c>
       <c r="L10" s="6">
-        <v>4903</v>
+        <v>5222</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="12">
-        <v>798</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
@@ -1523,16 +1525,16 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="12">
-        <v>5045</v>
+        <v>5125</v>
       </c>
       <c r="L11" s="6">
-        <v>9826</v>
+        <v>10381</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="12">
-        <v>829</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
@@ -1556,10 +1558,10 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6">
-        <v>11205</v>
+        <v>11197</v>
       </c>
       <c r="N12" s="6">
-        <v>4195</v>
+        <v>4203</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -1585,10 +1587,10 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6">
-        <v>4260</v>
+        <v>4314</v>
       </c>
       <c r="N13" s="6">
-        <v>11140</v>
+        <v>11086</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -1639,16 +1641,16 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="L15" s="6">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6">
-        <v>15611</v>
+        <v>15292</v>
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
@@ -1676,10 +1678,10 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="12">
-        <v>15319</v>
+        <v>15343</v>
       </c>
       <c r="R16" s="12">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="S16" s="7"/>
     </row>
@@ -1705,10 +1707,10 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="12">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="R17" s="12">
-        <v>15341</v>
+        <v>15329</v>
       </c>
       <c r="S17" s="7"/>
     </row>
@@ -1764,11 +1766,9 @@
       </c>
       <c r="T20" s="5"/>
       <c r="U20" s="12">
-        <v>15799</v>
-      </c>
-      <c r="V20" s="12">
-        <v>1</v>
-      </c>
+        <v>15800</v>
+      </c>
+      <c r="V20" s="12"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="7"/>
@@ -1782,10 +1782,10 @@
       </c>
       <c r="T21" s="5"/>
       <c r="U21" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V21" s="12">
-        <v>15799</v>
+        <v>15797</v>
       </c>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
@@ -1886,10 +1886,10 @@
         <v>15800</v>
       </c>
       <c r="AC28" s="2">
-        <v>15780</v>
+        <v>15782</v>
       </c>
       <c r="AD28" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
@@ -1912,10 +1912,10 @@
         <v>15800</v>
       </c>
       <c r="AC29" s="11">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AD29" s="6">
-        <v>15784</v>
+        <v>15777</v>
       </c>
       <c r="AE29" s="6"/>
       <c r="AF29" s="6"/>
@@ -2232,7 +2232,7 @@
   <dimension ref="A1:AP41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2547,11 +2547,11 @@
       </c>
       <c r="D3" s="15">
         <f>IF(count!D3 = 0, "", count!D3/$B3)</f>
-        <v>0.95116883116883122</v>
+        <v>0.9514935064935065</v>
       </c>
       <c r="E3" s="17">
         <f>IF(count!E3 = 0, "", count!E3/$B3)</f>
-        <v>4.8831168831168829E-2</v>
+        <v>4.8506493506493505E-2</v>
       </c>
       <c r="F3" s="13" t="str">
         <f>IF(count!F3 = 0, "", count!F3/$B3)</f>
@@ -2715,11 +2715,11 @@
       </c>
       <c r="D4" s="20">
         <f>IF(count!D4 = 0, "", count!D4/$B4)</f>
-        <v>4.7337662337662338E-2</v>
+        <v>4.753246753246753E-2</v>
       </c>
       <c r="E4" s="22">
         <f>IF(count!E4 = 0, "", count!E4/$B4)</f>
-        <v>0.95266233766233765</v>
+        <v>0.95246753246753246</v>
       </c>
       <c r="F4" s="13" t="str">
         <f>IF(count!F4 = 0, "", count!F4/$B4)</f>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="F5" s="15">
         <f>IF(count!F5 = 0, "", count!F5/$B5)</f>
-        <v>0.99949044585987257</v>
+        <v>0.99961783439490448</v>
       </c>
       <c r="G5" s="17" t="str">
         <f>IF(count!G5 = 0, "", count!G5/$B5)</f>
@@ -2905,9 +2905,9 @@
         <f>IF(count!I5 = 0, "", count!I5/$B5)</f>
         <v/>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="23">
         <f>IF(count!J5 = 0, "", count!J5/$B5)</f>
-        <v>5.0955414012738849E-4</v>
+        <v>3.8216560509554139E-4</v>
       </c>
       <c r="K5" s="13" t="str">
         <f>IF(count!K5 = 0, "", count!K5/$B5)</f>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="G6" s="22">
         <f>IF(count!G6 = 0, "", count!G6/$B6)</f>
-        <v>0.99949044585987257</v>
+        <v>0.9998726114649682</v>
       </c>
       <c r="H6" s="13" t="str">
         <f>IF(count!H6 = 0, "", count!H6/$B6)</f>
@@ -3073,9 +3073,9 @@
         <f>IF(count!I6 = 0, "", count!I6/$B6)</f>
         <v/>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="23">
         <f>IF(count!J6 = 0, "", count!J6/$B6)</f>
-        <v>5.0955414012738849E-4</v>
+        <v>1.2738853503184712E-4</v>
       </c>
       <c r="K6" s="13" t="str">
         <f>IF(count!K6 = 0, "", count!K6/$B6)</f>
@@ -3561,13 +3561,13 @@
         <f>IF(count!E9 = 0, "", count!E9/$B9)</f>
         <v/>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="23">
         <f>IF(count!F9 = 0, "", count!F9/$B9)</f>
         <v>2.5477707006369424E-4</v>
       </c>
-      <c r="G9" s="13" t="str">
+      <c r="G9" s="23">
         <f>IF(count!G9 = 0, "", count!G9/$B9)</f>
-        <v/>
+        <v>1.2738853503184712E-4</v>
       </c>
       <c r="H9" s="13" t="str">
         <f>IF(count!H9 = 0, "", count!H9/$B9)</f>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="J9" s="14">
         <f>IF(count!J9 = 0, "", count!J9/$B9)</f>
-        <v>0.99974522292993628</v>
+        <v>0.99961783439490448</v>
       </c>
       <c r="K9" s="13" t="str">
         <f>IF(count!K9 = 0, "", count!K9/$B9)</f>
@@ -3751,11 +3751,11 @@
       </c>
       <c r="K10" s="15">
         <f>IF(count!K10 = 0, "", count!K10/$B10)</f>
-        <v>0.63687898089171979</v>
+        <v>0.65611464968152866</v>
       </c>
       <c r="L10" s="17">
         <f>IF(count!L10 = 0, "", count!L10/$B10)</f>
-        <v>0.31229299363057322</v>
+        <v>0.33261146496815286</v>
       </c>
       <c r="M10" s="13" t="str">
         <f>IF(count!M10 = 0, "", count!M10/$B10)</f>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="P10" s="23">
         <f>IF(count!P10 = 0, "", count!P10/$B10)</f>
-        <v>5.0828025477707005E-2</v>
+        <v>1.1273885350318471E-2</v>
       </c>
       <c r="Q10" s="13" t="str">
         <f>IF(count!Q10 = 0, "", count!Q10/$B10)</f>
@@ -3919,11 +3919,11 @@
       </c>
       <c r="K11" s="20">
         <f>IF(count!K11 = 0, "", count!K11/$B11)</f>
-        <v>0.32133757961783438</v>
+        <v>0.32643312101910826</v>
       </c>
       <c r="L11" s="22">
         <f>IF(count!L11 = 0, "", count!L11/$B11)</f>
-        <v>0.62585987261146492</v>
+        <v>0.66121019108280255</v>
       </c>
       <c r="M11" s="13" t="str">
         <f>IF(count!M11 = 0, "", count!M11/$B11)</f>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="P11" s="23">
         <f>IF(count!P11 = 0, "", count!P11/$B11)</f>
-        <v>5.2802547770700634E-2</v>
+        <v>1.2356687898089172E-2</v>
       </c>
       <c r="Q11" s="13" t="str">
         <f>IF(count!Q11 = 0, "", count!Q11/$B11)</f>
@@ -4095,11 +4095,11 @@
       </c>
       <c r="M12" s="15">
         <f>IF(count!M12 = 0, "", count!M12/$B12)</f>
-        <v>0.72759740259740258</v>
+        <v>0.7270779220779221</v>
       </c>
       <c r="N12" s="17">
         <f>IF(count!N12 = 0, "", count!N12/$B12)</f>
-        <v>0.27240259740259742</v>
+        <v>0.2729220779220779</v>
       </c>
       <c r="O12" s="13" t="str">
         <f>IF(count!O12 = 0, "", count!O12/$B12)</f>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="M13" s="20">
         <f>IF(count!M13 = 0, "", count!M13/$B13)</f>
-        <v>0.2766233766233766</v>
+        <v>0.28012987012987012</v>
       </c>
       <c r="N13" s="22">
         <f>IF(count!N13 = 0, "", count!N13/$B13)</f>
-        <v>0.72337662337662334</v>
+        <v>0.71987012987012988</v>
       </c>
       <c r="O13" s="13" t="str">
         <f>IF(count!O13 = 0, "", count!O13/$B13)</f>
@@ -4589,13 +4589,13 @@
         <f>IF(count!J15 = 0, "", count!J15/$B15)</f>
         <v/>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="23">
         <f>IF(count!K15 = 0, "", count!K15/$B15)</f>
-        <v>2.4840764331210191E-3</v>
-      </c>
-      <c r="L15" s="13">
+        <v>1.1974522292993631E-2</v>
+      </c>
+      <c r="L15" s="23">
         <f>IF(count!L15 = 0, "", count!L15/$B15)</f>
-        <v>3.1847133757961785E-3</v>
+        <v>1.4012738853503185E-2</v>
       </c>
       <c r="M15" s="13" t="str">
         <f>IF(count!M15 = 0, "", count!M15/$B15)</f>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="P15" s="14">
         <f>IF(count!P15 = 0, "", count!P15/$B15)</f>
-        <v>0.99433121019108284</v>
+        <v>0.97401273885350315</v>
       </c>
       <c r="Q15" s="13" t="str">
         <f>IF(count!Q15 = 0, "", count!Q15/$B15)</f>
@@ -4783,11 +4783,11 @@
       </c>
       <c r="Q16" s="15">
         <f>IF(count!Q16 = 0, "", count!Q16/$B16)</f>
-        <v>0.9947402597402597</v>
+        <v>0.99629870129870135</v>
       </c>
       <c r="R16" s="17">
         <f>IF(count!R16 = 0, "", count!R16/$B16)</f>
-        <v>5.2597402597402594E-3</v>
+        <v>3.7012987012987014E-3</v>
       </c>
       <c r="S16" s="19" t="str">
         <f>IF(count!S16 = 0, "", count!S16/$B16)</f>
@@ -4951,11 +4951,11 @@
       </c>
       <c r="Q17" s="20">
         <f>IF(count!Q17 = 0, "", count!Q17/$B17)</f>
-        <v>3.8311688311688311E-3</v>
+        <v>4.6103896103896107E-3</v>
       </c>
       <c r="R17" s="22">
         <f>IF(count!R17 = 0, "", count!R17/$B17)</f>
-        <v>0.99616883116883115</v>
+        <v>0.99538961038961038</v>
       </c>
       <c r="S17" s="19" t="str">
         <f>IF(count!S17 = 0, "", count!S17/$B17)</f>
@@ -5471,11 +5471,11 @@
       </c>
       <c r="U20" s="15">
         <f>IF(count!U20 = 0, "", count!U20/$B20)</f>
-        <v>0.99993670886075947</v>
-      </c>
-      <c r="V20" s="17">
+        <v>1</v>
+      </c>
+      <c r="V20" s="17" t="str">
         <f>IF(count!V20 = 0, "", count!V20/$B20)</f>
-        <v>6.3291139240506333E-5</v>
+        <v/>
       </c>
       <c r="W20" s="13" t="str">
         <f>IF(count!W20 = 0, "", count!W20/$B20)</f>
@@ -5639,11 +5639,11 @@
       </c>
       <c r="U21" s="20">
         <f>IF(count!U21 = 0, "", count!U21/$B21)</f>
-        <v>6.3291139240506333E-5</v>
+        <v>1.8987341772151899E-4</v>
       </c>
       <c r="V21" s="22">
         <f>IF(count!V21 = 0, "", count!V21/$B21)</f>
-        <v>0.99993670886075947</v>
+        <v>0.99981012658227852</v>
       </c>
       <c r="W21" s="13" t="str">
         <f>IF(count!W21 = 0, "", count!W21/$B21)</f>
@@ -6847,11 +6847,11 @@
       </c>
       <c r="AC28" s="15">
         <f>IF(count!AC28 = 0, "", count!AC28/$B28)</f>
-        <v>0.99873417721518987</v>
+        <v>0.99886075949367092</v>
       </c>
       <c r="AD28" s="17">
         <f>IF(count!AD28 = 0, "", count!AD28/$B28)</f>
-        <v>1.2658227848101266E-3</v>
+        <v>1.139240506329114E-3</v>
       </c>
       <c r="AE28" s="16" t="str">
         <f>IF(count!AE28 = 0, "", count!AE28/$B28)</f>
@@ -7015,11 +7015,11 @@
       </c>
       <c r="AC29" s="20">
         <f>IF(count!AC29 = 0, "", count!AC29/$B29)</f>
-        <v>1.0126582278481013E-3</v>
+        <v>1.4556962025316456E-3</v>
       </c>
       <c r="AD29" s="22">
         <f>IF(count!AD29 = 0, "", count!AD29/$B29)</f>
-        <v>0.99898734177215187</v>
+        <v>0.99854430379746839</v>
       </c>
       <c r="AE29" s="13" t="str">
         <f>IF(count!AE29 = 0, "", count!AE29/$B29)</f>

--- a/doc/Class2.xlsx
+++ b/doc/Class2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\cygwin64\home\s.hein\GitHub\Trains\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cygwin64\home\heins\GitHub\Trains\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3C92E036-B757-41E8-91CA-844759E62AFC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7425" yWindow="0" windowWidth="27315" windowHeight="12008" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8355" yWindow="0" windowWidth="27315" windowHeight="12015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="count" sheetId="1" r:id="rId1"/>
@@ -158,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1136,20 +1135,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP41"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" customWidth="1"/>
-    <col min="3" max="42" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="3" max="42" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="107.65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:42" ht="107.25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1273,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1324,7 +1323,7 @@
       <c r="AO2" s="19"/>
       <c r="AP2" s="19"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1376,7 +1375,7 @@
       <c r="AO3" s="19"/>
       <c r="AP3" s="19"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1428,7 +1427,7 @@
       <c r="AO4" s="19"/>
       <c r="AP4" s="19"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1480,7 +1479,7 @@
       <c r="AO5" s="19"/>
       <c r="AP5" s="19"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1532,7 +1531,7 @@
       <c r="AO6" s="19"/>
       <c r="AP6" s="19"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1582,7 +1581,7 @@
       <c r="AO7" s="19"/>
       <c r="AP7" s="19"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1632,7 +1631,7 @@
       <c r="AO8" s="19"/>
       <c r="AP8" s="19"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1686,7 +1685,7 @@
       <c r="AO9" s="19"/>
       <c r="AP9" s="19"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1740,7 +1739,7 @@
       <c r="AO10" s="19"/>
       <c r="AP10" s="19"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1794,7 +1793,7 @@
       <c r="AO11" s="19"/>
       <c r="AP11" s="19"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1846,7 +1845,7 @@
       <c r="AO12" s="19"/>
       <c r="AP12" s="19"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1898,7 +1897,7 @@
       <c r="AO13" s="19"/>
       <c r="AP13" s="19"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1948,7 +1947,7 @@
       <c r="AO14" s="19"/>
       <c r="AP14" s="19"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2002,7 +2001,7 @@
       <c r="AO15" s="19"/>
       <c r="AP15" s="19"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2054,7 +2053,7 @@
       <c r="AO16" s="19"/>
       <c r="AP16" s="19"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2106,7 +2105,7 @@
       <c r="AO17" s="19"/>
       <c r="AP17" s="19"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2156,7 +2155,7 @@
       <c r="AO18" s="19"/>
       <c r="AP18" s="19"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2206,7 +2205,7 @@
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2256,7 +2255,7 @@
       <c r="AO20" s="19"/>
       <c r="AP20" s="19"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2308,7 +2307,7 @@
       <c r="AO21" s="19"/>
       <c r="AP21" s="19"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2358,7 +2357,7 @@
       <c r="AO22" s="19"/>
       <c r="AP22" s="19"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2408,7 +2407,7 @@
       <c r="AO23" s="19"/>
       <c r="AP23" s="19"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2458,7 +2457,7 @@
       <c r="AO24" s="19"/>
       <c r="AP24" s="19"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2508,7 +2507,7 @@
       <c r="AO25" s="19"/>
       <c r="AP25" s="19"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2558,7 +2557,7 @@
       <c r="AO26" s="19"/>
       <c r="AP26" s="19"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2608,7 +2607,7 @@
       <c r="AO27" s="19"/>
       <c r="AP27" s="19"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2660,7 +2659,7 @@
       <c r="AO28" s="17"/>
       <c r="AP28" s="18"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2712,7 +2711,7 @@
       <c r="AO29" s="19"/>
       <c r="AP29" s="22"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2762,7 +2761,7 @@
       <c r="AO30" s="19"/>
       <c r="AP30" s="22"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2812,7 +2811,7 @@
       <c r="AO31" s="19"/>
       <c r="AP31" s="22"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2862,7 +2861,7 @@
       <c r="AO32" s="19"/>
       <c r="AP32" s="22"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2912,7 +2911,7 @@
       <c r="AO33" s="19"/>
       <c r="AP33" s="22"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2962,7 +2961,7 @@
       <c r="AO34" s="19"/>
       <c r="AP34" s="22"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3012,7 +3011,7 @@
       <c r="AO35" s="19"/>
       <c r="AP35" s="22"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3062,7 +3061,7 @@
       <c r="AO36" s="19"/>
       <c r="AP36" s="22"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3112,7 +3111,7 @@
       <c r="AO37" s="19"/>
       <c r="AP37" s="22"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3162,7 +3161,7 @@
       <c r="AO38" s="19"/>
       <c r="AP38" s="22"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3212,7 +3211,7 @@
       <c r="AO39" s="19"/>
       <c r="AP39" s="22"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3262,7 +3261,7 @@
       </c>
       <c r="AP40" s="18"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3319,7 +3318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3329,17 +3328,17 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" customWidth="1"/>
-    <col min="3" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="44" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="3" max="4" width="9" customWidth="1"/>
+    <col min="5" max="44" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="107.65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:44" ht="107.25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3470,7 +3469,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3646,7 +3645,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3822,7 +3821,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3998,7 +3997,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4350,7 +4349,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4526,7 +4525,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4878,7 +4877,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5054,7 +5053,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5406,7 +5405,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5582,7 +5581,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5758,7 +5757,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5934,7 +5933,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -6110,7 +6109,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -6462,7 +6461,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -6638,7 +6637,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -6990,7 +6989,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -7166,7 +7165,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -7342,7 +7341,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -7518,7 +7517,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -7694,7 +7693,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -7870,7 +7869,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -8046,7 +8045,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -8222,7 +8221,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -8398,7 +8397,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -8574,7 +8573,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -8750,7 +8749,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -8926,7 +8925,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -9102,7 +9101,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -9278,7 +9277,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -9454,7 +9453,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -9630,7 +9629,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -9806,7 +9805,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -9982,7 +9981,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -10158,7 +10157,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -10334,7 +10333,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
